--- a/biology/Histoire de la zoologie et de la botanique/Fred_Vlès/Fred_Vlès.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fred_Vlès/Fred_Vlès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fred_Vl%C3%A8s</t>
+          <t>Fred_Vlès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fred Manuel Raoul Vlès, né le 22 janvier 1885 au Havre et mort le 2 juillet 1944 (à 59 ans), à Dachau[1], est un zoologiste et biologiste français, docteur ès sciences, professeur de physique biologique à la faculté de médecine de Strasbourg entre 1922 et sa déportation en 1944.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fred Manuel Raoul Vlès, né le 22 janvier 1885 au Havre et mort le 2 juillet 1944 (à 59 ans), à Dachau, est un zoologiste et biologiste français, docteur ès sciences, professeur de physique biologique à la faculté de médecine de Strasbourg entre 1922 et sa déportation en 1944.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fred_Vl%C3%A8s</t>
+          <t>Fred_Vlès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il participe à la Première Guerre mondiale dans un régiment de zouaves, où il est cité deux fois à l'ordre.
 Lors de la Seconde Guerre mondiale, le 8 mars 1944, il échappe à la rafle de l'Hôtel-Dieu de Clermont-Ferrand effectuée par la Gestapo à la suite d'un attentat commis le même jour. Mais pour éviter des représailles infligées à d'autres, il se présente volontairement deux jours après à la Kommandantur locale. Emprisonné au 92e RI de Clermont-Ferrand pendant trois mois, il est envoyé à Compiègne où l'attend un des derniers convois pour Dachau.
-Le 2 juillet 1944 Fred Vlès est déporté au camp de concentration de Dachau par le convoi 7909 qui arrivera au camp le 5 juillet[2],[3]: 2 521 individus sont dénombrés au départ de Compiègne, 984 mourront durant le trajet vers l'Allemagne et seulement 181 individus reviendront de captivité. Il est enregistré comme décédé le premier jour du trajet[4]. 
+Le 2 juillet 1944 Fred Vlès est déporté au camp de concentration de Dachau par le convoi 7909 qui arrivera au camp le 5 juillet,: 2 521 individus sont dénombrés au départ de Compiègne, 984 mourront durant le trajet vers l'Allemagne et seulement 181 individus reviendront de captivité. Il est enregistré comme décédé le premier jour du trajet. 
 Son fils unique Jean-Claude Vlès, servant dans l'aviation, est tué lors de cette même guerre.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fred_Vl%C3%A8s</t>
+          <t>Fred_Vlès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Fred Vlès avait été astronome, géologue, naturaliste, physiologiste et physicien; il fit alors des études médicales. Cette formation riche et variée traduit une curiosité scientifique peu commune. Ses recherches comme sa formation furent multiples, originales et fécondes. Il était avant tout un biologiste. Il avait quitté la station de biologie marine de Roscoff[5] pour enseigner à Strasbourg[6]. Était-ce au contact de cet environnement qu'il prit conscience du rôle primordiale des propriétés physico-chimiques des solutions dans l'étude des manifestations, aussi multiples que complexes, dont il avait été un observateur quotidien ? 
+« Fred Vlès avait été astronome, géologue, naturaliste, physiologiste et physicien; il fit alors des études médicales. Cette formation riche et variée traduit une curiosité scientifique peu commune. Ses recherches comme sa formation furent multiples, originales et fécondes. Il était avant tout un biologiste. Il avait quitté la station de biologie marine de Roscoff pour enseigner à Strasbourg. Était-ce au contact de cet environnement qu'il prit conscience du rôle primordiale des propriétés physico-chimiques des solutions dans l'étude des manifestations, aussi multiples que complexes, dont il avait été un observateur quotidien ? 
 Vlès fut le pionnier des la physico-chimie biologique des cellules et de leur environnement, appelé le milieu intérieur, véritable mer nutritionnelle, siège des équilibres subtils, et assurant les échanges avec le milieu extérieur. Il publia Introduction à la chimie-physique biologique(1927).
-Vlès s'attacha à l'étude de l'homéostasie ionique et oncotique du milieu intérieur, il en étudia les variations au cours de la croissance et des déviations dans le cancer. S'il s'intéressa plus particulièrement aux équilibres ioniques, son élève de Roscoff, Paul Reiss(1901-1944), qui deviendra son agrégé en 1930, se consacra à l'étude des équilibres d'oxydoréduction cellulaire. l'un comme l'autre étaient convaincus des ressources que l'on pouvait tirer des procédés physiques. Ils développèrent des techniques électrométriques et spectroscopiques originales, qui leur permirent une étude structurale fine de la fibre musculaire, des milieux transparents de l’œil et des sellules embryonnaires. Paul Reiss publia Action des agents physiques sur les organismes (1935)[7]. »
+Vlès s'attacha à l'étude de l'homéostasie ionique et oncotique du milieu intérieur, il en étudia les variations au cours de la croissance et des déviations dans le cancer. S'il s'intéressa plus particulièrement aux équilibres ioniques, son élève de Roscoff, Paul Reiss(1901-1944), qui deviendra son agrégé en 1930, se consacra à l'étude des équilibres d'oxydoréduction cellulaire. l'un comme l'autre étaient convaincus des ressources que l'on pouvait tirer des procédés physiques. Ils développèrent des techniques électrométriques et spectroscopiques originales, qui leur permirent une étude structurale fine de la fibre musculaire, des milieux transparents de l’œil et des sellules embryonnaires. Paul Reiss publia Action des agents physiques sur les organismes (1935). »
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fred_Vl%C3%A8s</t>
+          <t>Fred_Vlès</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Notes et revue no 2 des archives de zoologie expérimentale et générale : quelques remarques sur tokophrya cyclopum cl. et c. - sur la biréfrigérence musculaire  - notes sur les myxosporidies, 1908.
 Propriétés optiques des muscles, Hermann (Paris), 1911, Texte intégral.
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fred_Vl%C3%A8s</t>
+          <t>Fred_Vlès</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,9 +645,11 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À Strasbourg, une rue à proximité de la faculté porte le nom de Fred Vlès[8] en son hommage, comme l'un des amphithéâtres de la Faculté de médecine de Strasbourg. Une plaque commémorative est apposée dans l'Institut de physique biologique, bâtiment construit par l'architecte Garnon, à l'initiative de Vlès, en 1937-1938 et dont il fut le premier directeur.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Strasbourg, une rue à proximité de la faculté porte le nom de Fred Vlès en son hommage, comme l'un des amphithéâtres de la Faculté de médecine de Strasbourg. Une plaque commémorative est apposée dans l'Institut de physique biologique, bâtiment construit par l'architecte Garnon, à l'initiative de Vlès, en 1937-1938 et dont il fut le premier directeur.
 </t>
         </is>
       </c>
